--- a/experiments/roberta/results/two_answer_best_context_concat.xlsx
+++ b/experiments/roberta/results/two_answer_best_context_concat.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iTA\experiments\roberta\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iLFQA\experiments\roberta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD4DECD-6FCA-4B0A-839A-E5A724F9D201}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D22BFF-763D-4FB1-9661-DB509B07B9FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="averages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="472">
   <si>
     <t>Question</t>
   </si>
@@ -1891,7 +1892,7 @@
     <t>There were fewer girls than boys, but there were more boys than girls. The theory of gender development is the idea that the split between genders must vary across age groups. The idea is that if you look at a population as a whole, you will find that the ratio of males to females is the same for every age group. However, if you take a population of infants and look at the ratio between males and females, you find that there are more females than males. The reason for this is not thoroughly understood, and scientists are still working on it.</t>
   </si>
   <si>
-    <t>total average time:</t>
+    <t>total_time</t>
   </si>
 </sst>
 </file>
@@ -2234,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D102" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView topLeftCell="D116" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5958,43 +5959,76 @@
         <v>90.296864367856003</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E117">
-        <f t="shared" ref="E117:I117" si="0">AVERAGE(E2:E116)</f>
-        <v>0.1535524451214331</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="0"/>
-        <v>0.26295023379118537</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="0"/>
-        <v>1.5177011324011727</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="0"/>
-        <v>8.1468989268593059</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="0"/>
-        <v>0.48052376280021408</v>
-      </c>
-      <c r="J117">
-        <f>AVERAGE(J2:J116)</f>
-        <v>73.392331742187807</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D119" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E119">
-        <f>SUM(E117:H117)</f>
-        <v>10.081102738173097</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5187382D-0038-4E7D-A9EA-D97B86C09C5F}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>AVERAGE(Sheet1!E2:E116)</f>
+        <v>0.1535524451214331</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(Sheet1!F2:F116)</f>
+        <v>0.26295023379118537</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(Sheet1!G2:G116)</f>
+        <v>1.5177011324011727</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(Sheet1!H2:H116)</f>
+        <v>8.1468989268593059</v>
+      </c>
+      <c r="E2">
+        <f>SUM(A2:D2)</f>
+        <v>10.081102738173097</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(Sheet1!I2:I116)</f>
+        <v>0.48052376280021408</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(Sheet1!J2:J116)</f>
+        <v>73.392331742187807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>